--- a/xlsx/贸易保护主义_intext.xlsx
+++ b/xlsx/贸易保护主义_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>地方主義</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_贸易保护主义</t>
+    <t>地方主义</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_贸易保护主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>產業</t>
+    <t>产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E5%8F%A3</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>公平貿易</t>
+    <t>公平贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
 </sst>
 </file>
